--- a/papers/related work.xlsx
+++ b/papers/related work.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammad/Desktop/Bsc prj/papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AFDD82-93FB-9943-AB11-A9B57F64854C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FEE5E9-F217-0D44-8A2B-CF00427388E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="108">
   <si>
     <t>Title</t>
   </si>
@@ -326,6 +326,67 @@
   <si>
     <t>All on our dataset, 
 i.e. HUG database</t>
+  </si>
+  <si>
+    <t>IEEE Journal of Biomedical and Health Informatics</t>
+  </si>
+  <si>
+    <t>springer:Medical &amp; Biological Engineering &amp; Computing</t>
+  </si>
+  <si>
+    <t>springr :Multimedia Tools and Applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPIE - The International Society for Optical Engineering </t>
+  </si>
+  <si>
+    <t>elsevier: Medical Image Analysis</t>
+  </si>
+  <si>
+    <t>IEEE TRANSACTIONS ON MEDICAL IMAGING</t>
+  </si>
+  <si>
+    <t>Computer Methods in Biomechanics and Biomedical Engineering: Imaging &amp; Visualization</t>
+  </si>
+  <si>
+    <t>arXiv</t>
+  </si>
+  <si>
+    <t>Atlantis Press – now part of Springer Nature</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Advances in Computer Vision and Pattern Recognition book series (ACVPR)</t>
+  </si>
+  <si>
+    <t>ICARCV 2014</t>
+  </si>
+  <si>
+    <t>Annual International Conference of the IEEE EMBS</t>
+  </si>
+  <si>
+    <t>spiedl: Medical Imaging 2014: Computer-Aided Diagnosis</t>
+  </si>
+  <si>
+    <t>Springer, Berlin, Heidelberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> International Conference on Information Communication and Embedded Systems (ICICES2014)</t>
+  </si>
+  <si>
+    <t>The International journal of analytical and experimental modal analysis</t>
+  </si>
+  <si>
+    <t>Ieee: JOURNAL OF BIOMEDICAL AND HEALTH INFORMATICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubmed : Academic radiology </t>
+  </si>
+  <si>
+    <t>THE IMAGING SCIENCE JOURNAL Taylor and Francis Group</t>
+  </si>
+  <si>
+    <t>Annual International Conference of the IEEE Engineering in Medicine and Biology Society.
+ IEEE Engineering in Medicine and Biology Society</t>
   </si>
 </sst>
 </file>
@@ -423,7 +484,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -820,11 +881,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1098,6 +1172,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2265,7 +2354,7 @@
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="25" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="70" customHeight="1"/>
@@ -2278,7 +2367,9 @@
     <col min="6" max="6" width="33" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="5.6640625" style="3" customWidth="1"/>
-    <col min="9" max="26" width="12.6640625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="12.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="179.33203125" style="93" customWidth="1"/>
+    <col min="12" max="26" width="12.6640625" style="3" customWidth="1"/>
     <col min="27" max="16384" width="12.6640625" style="3"/>
   </cols>
   <sheetData>
@@ -2305,7 +2396,9 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="K1" s="24" t="s">
+        <v>88</v>
+      </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -2334,7 +2427,9 @@
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="K2" s="95" t="s">
+        <v>88</v>
+      </c>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
@@ -2372,7 +2467,9 @@
       <c r="G3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="K3" s="24" t="s">
+        <v>89</v>
+      </c>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
@@ -2411,7 +2508,9 @@
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="K4" s="96" t="s">
+        <v>107</v>
+      </c>
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
@@ -2450,7 +2549,9 @@
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="K5" s="24" t="s">
+        <v>94</v>
+      </c>
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
@@ -2489,7 +2590,9 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="K6" s="24" t="s">
+        <v>90</v>
+      </c>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
@@ -2528,7 +2631,9 @@
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="K7" s="24" t="s">
+        <v>91</v>
+      </c>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
@@ -2567,7 +2672,9 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
+      <c r="K8" s="24" t="s">
+        <v>92</v>
+      </c>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
@@ -2643,7 +2750,9 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
+      <c r="K10" s="24" t="s">
+        <v>93</v>
+      </c>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
@@ -2682,7 +2791,9 @@
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
+      <c r="K11" s="24" t="s">
+        <v>93</v>
+      </c>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
@@ -2721,7 +2832,9 @@
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
+      <c r="K12" s="24" t="s">
+        <v>93</v>
+      </c>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
@@ -2760,7 +2873,9 @@
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
+      <c r="K13" s="24" t="s">
+        <v>93</v>
+      </c>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
@@ -2937,7 +3052,9 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
+      <c r="K18" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
@@ -2976,7 +3093,9 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
+      <c r="K19" s="24" t="s">
+        <v>90</v>
+      </c>
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
@@ -3015,7 +3134,9 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
+      <c r="K20" s="24" t="s">
+        <v>97</v>
+      </c>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
@@ -3054,7 +3175,9 @@
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
+      <c r="K21" s="24" t="s">
+        <v>106</v>
+      </c>
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
       <c r="N21" s="21"/>
@@ -3093,7 +3216,9 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
+      <c r="K22" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
       <c r="N22" s="21"/>
@@ -3132,7 +3257,9 @@
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
+      <c r="K23" s="24" t="s">
+        <v>99</v>
+      </c>
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
@@ -3171,7 +3298,9 @@
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
+      <c r="K24" s="24" t="s">
+        <v>100</v>
+      </c>
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
@@ -3210,7 +3339,9 @@
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
+      <c r="K25" s="24" t="s">
+        <v>101</v>
+      </c>
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
@@ -3249,7 +3380,9 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+      <c r="K26" s="24" t="s">
+        <v>102</v>
+      </c>
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
@@ -3288,7 +3421,9 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
+      <c r="K27" s="94" t="s">
+        <v>104</v>
+      </c>
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
       <c r="N27" s="21"/>
@@ -3317,7 +3452,9 @@
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
+      <c r="K28" s="24" t="s">
+        <v>103</v>
+      </c>
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
       <c r="N28" s="21"/>
@@ -3356,7 +3493,9 @@
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
+      <c r="K29" s="24" t="s">
+        <v>105</v>
+      </c>
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
       <c r="N29" s="21"/>
@@ -3385,7 +3524,9 @@
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+      <c r="K30" s="24" t="s">
+        <v>95</v>
+      </c>
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
       <c r="N30" s="21"/>
@@ -3424,7 +3565,6 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
       <c r="N31" s="21"/>
@@ -3463,7 +3603,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
+      <c r="K32" s="92"/>
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
       <c r="N32" s="21"/>
@@ -3492,7 +3632,7 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
+      <c r="K33" s="92"/>
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
@@ -3531,7 +3671,7 @@
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
+      <c r="K34" s="92"/>
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
@@ -3570,7 +3710,7 @@
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
+      <c r="K35" s="92"/>
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
       <c r="N35" s="21"/>
@@ -3609,7 +3749,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
+      <c r="K36" s="92"/>
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
       <c r="N36" s="21"/>
@@ -3648,7 +3788,7 @@
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
+      <c r="K37" s="92"/>
       <c r="L37" s="21"/>
       <c r="M37" s="21"/>
       <c r="N37" s="21"/>
@@ -3687,7 +3827,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
+      <c r="K38" s="92"/>
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
       <c r="N38" s="21"/>
@@ -3714,7 +3854,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
+      <c r="K39" s="92"/>
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
       <c r="N39" s="21"/>
